--- a/biology/Médecine/Vaccin_UCPVax/Vaccin_UCPVax.xlsx
+++ b/biology/Médecine/Vaccin_UCPVax/Vaccin_UCPVax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaccin UCPVax (Universal Cancer Peptide en anglais) est un brevet de vaccin thérapeutique universel, actuellement au stade de recherche médicale, à base d'immunothérapie, pour le traitement du cancer.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009 l'équipe de recherche médicale en oncologie / immunothérapie du centre hospitalier universitaire Jean-Minjoz de Besançon en Franche-Comté, des professeurs oncologues Olivier Adotevi et Christophe Borg, associé avec l'INSERM et l’EFS, et le Professeur Pierre Langlade-Demoyen, de la société Invectys, commencent des travaux de recherche et développement d'un vaccin anticancer universel. Il est baptisé « vaccin UCPVax » et breveté en 2012 par un consortium comprenant le CHU de Besançon et l'université de Franche-Comté.
 Ce vaccin thérapeutique antigène / anticancer est dit universel car il cible la télomérase, une enzyme qui confère un pouvoir d'immortalité aux cellules cancéreuses présentes dans la plupart des cancers. Il active et stimule les lymphocytes T CD4 du système immunitaire (défenses naturelles) des patients pour lutter contre les tumeurs cancéreuses déclarées et leurs éventuelles métastases. 
